--- a/config/eda.xlsx
+++ b/config/eda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72364bdb7555e539/Documentos/GitHub/eda-to-excel/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DD9AAB8999319E6705EA2083E01E3C05B582ECD2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{938D845B-8C1D-4D1C-82BB-DC7C8FB4F14E}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E6B4CEDC1879EAED90B93C87D710E52BA94B90AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0FDCC60-A017-4F08-B91A-E8F4B59B2496}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="250" windowWidth="16890" windowHeight="9410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,31 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="AF2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Verifica se a chave formada pelos campos classificados como "pk" na aba "fields" possui registros únicos na tabela. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="AF2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="107">
   <si>
     <t>table</t>
   </si>
@@ -257,6 +281,12 @@
     <t>pk_unique</t>
   </si>
   <si>
+    <t xml:space="preserve">pk_not_null </t>
+  </si>
+  <si>
+    <t>ref_integrity</t>
+  </si>
+  <si>
     <t>ses_cias</t>
   </si>
   <si>
@@ -305,18 +335,21 @@
     <t>field characteristics</t>
   </si>
   <si>
+    <t>counting by content types</t>
+  </si>
+  <si>
     <t>describe</t>
   </si>
   <si>
     <t>validations</t>
   </si>
   <si>
+    <t>fk integrity</t>
+  </si>
+  <si>
     <t>field</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>format</t>
   </si>
   <si>
@@ -326,12 +359,12 @@
     <t>fk</t>
   </si>
   <si>
+    <t>fk_table</t>
+  </si>
+  <si>
     <t>fk_field</t>
   </si>
   <si>
-    <t>fk_table</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -416,15 +449,15 @@
     <t>valid_on_range</t>
   </si>
   <si>
+    <t>fk_found</t>
+  </si>
+  <si>
     <t>coenti</t>
   </si>
   <si>
     <t>Código da empresas seguradoras</t>
   </si>
   <si>
-    <t>Sergio</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -437,6 +470,9 @@
     <t>no list</t>
   </si>
   <si>
+    <t>no fk</t>
+  </si>
+  <si>
     <t>noenti</t>
   </si>
   <si>
@@ -534,16 +570,13 @@
   </si>
   <si>
     <t>Despesa Comercial (R$)</t>
-  </si>
-  <si>
-    <t>counting by content types</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,13 +631,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,14 +648,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.499984740745262"/>
+      <sz val="9"/>
+      <color theme="4" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -637,13 +670,21 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="4"/>
+      <color theme="7" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,12 +724,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,8 +775,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -808,11 +885,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -823,90 +909,164 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="10" fontId="11" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.1498764000366222"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -919,6 +1079,11 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
       </font>
     </dxf>
@@ -939,6 +1104,16 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -964,6 +1139,11 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -984,7 +1164,192 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.1498764000366222"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.1498764000366222"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
     </dxf>
     <dxf>
@@ -1309,28 +1674,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.453125" style="28" customWidth="1"/>
+    <col min="11" max="12" width="7.1796875" style="28" customWidth="1"/>
+    <col min="13" max="13" width="7.81640625" style="28" customWidth="1"/>
+    <col min="14" max="14" width="12.08984375" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1358,2365 +1726,2558 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="35" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="36"/>
+      <c r="L1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="26" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="14">
+        <v>15</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="12">
         <v>743</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="12">
         <v>5</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="12">
+        <v>742</v>
+      </c>
+      <c r="K2" s="25">
+        <f>J2/F2</f>
+        <v>0.99865410497981155</v>
+      </c>
+      <c r="L2" s="12">
+        <v>741</v>
+      </c>
+      <c r="M2" s="25">
+        <f>L2/F2</f>
+        <v>0.9973082099596231</v>
+      </c>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="E3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="12">
+        <v>161</v>
+      </c>
+      <c r="G3" s="12">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="12">
+        <v>161</v>
+      </c>
+      <c r="K3" s="25">
+        <f>J3/F3</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="12">
+        <v>161</v>
+      </c>
+      <c r="M3" s="25">
+        <f>L3/F3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="E4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="12">
+        <v>100</v>
+      </c>
+      <c r="G4" s="12">
+        <v>21</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="12">
+        <v>100</v>
+      </c>
+      <c r="K4" s="25">
+        <f>J4/F4</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="12">
+        <v>100</v>
+      </c>
+      <c r="M4" s="25">
+        <f>L4/F4</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="12"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="14">
-        <v>161</v>
-      </c>
-      <c r="G3" s="14">
-        <v>2</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="14">
-        <v>100</v>
-      </c>
-      <c r="G4" s="14">
-        <v>21</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I8" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AV15"/>
+  <dimension ref="A1:AZ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AT11" sqref="AT11"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="13" customWidth="1"/>
-    <col min="17" max="17" width="10.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" style="13" customWidth="1"/>
-    <col min="21" max="21" width="6" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.6328125" style="13" customWidth="1"/>
-    <col min="23" max="23" width="6" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.81640625" style="13" customWidth="1"/>
-    <col min="25" max="25" width="6.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="1.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="1.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.81640625" style="13" customWidth="1"/>
-    <col min="33" max="33" width="10.1796875" style="13" customWidth="1"/>
-    <col min="34" max="35" width="10.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.08984375" style="13" customWidth="1"/>
-    <col min="39" max="39" width="4.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="7.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.36328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.36328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.54296875" style="13" customWidth="1"/>
-    <col min="49" max="60" width="4.81640625" style="13" customWidth="1"/>
-    <col min="61" max="16384" width="4.81640625" style="13"/>
+    <col min="1" max="1" width="11.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.90625" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.90625" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" style="28" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="28" customWidth="1"/>
+    <col min="21" max="21" width="1.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" style="28" customWidth="1"/>
+    <col min="23" max="23" width="3.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="1.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.6328125" style="28" customWidth="1"/>
+    <col min="27" max="27" width="3.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.90625" style="28" customWidth="1"/>
+    <col min="29" max="29" width="1.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.1796875" style="28" customWidth="1"/>
+    <col min="31" max="31" width="8.81640625" style="28" customWidth="1"/>
+    <col min="32" max="32" width="10.1796875" style="28" customWidth="1"/>
+    <col min="33" max="34" width="10.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.08984375" style="28" customWidth="1"/>
+    <col min="38" max="38" width="4.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="7.90625" style="28" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.36328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.36328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.54296875" style="28" customWidth="1"/>
+    <col min="49" max="49" width="8.7265625" style="28" customWidth="1"/>
+    <col min="50" max="50" width="7.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.36328125" style="28" customWidth="1"/>
+    <col min="52" max="52" width="7.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="53" max="61" width="4.81640625" style="28" customWidth="1"/>
+    <col min="62" max="16384" width="4.81640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="31" t="s">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="39" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="41"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="36"/>
     </row>
-    <row r="2" spans="1:48" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="1:52" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>29</v>
+      <c r="E2" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="P2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="21" t="s">
+      <c r="Q2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="21" t="s">
+      <c r="R2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="21" t="s">
+      <c r="S2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="21" t="s">
+      <c r="T2" s="36"/>
+      <c r="U2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="21" t="s">
+      <c r="V2" s="36"/>
+      <c r="W2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="23" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="23" t="s">
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AH2" s="23" t="s">
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="AI2" s="23" t="s">
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AJ2" s="24" t="s">
+      <c r="AF2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="23" t="s">
+      <c r="AG2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AM2" s="23" t="s">
+      <c r="AH2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AN2" s="23" t="s">
+      <c r="AI2" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="AO2" s="23" t="s">
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AP2" s="23" t="s">
+      <c r="AL2" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="AQ2" s="37" t="s">
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="37" t="s">
+      <c r="AO2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="37" t="s">
+      <c r="AP2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AV2" s="38"/>
+      <c r="AQ2" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="29"/>
     </row>
-    <row r="3" spans="1:48" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10" t="s">
+    <row r="3" spans="1:52" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10">
+      <c r="C3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9">
         <v>743</v>
       </c>
-      <c r="T3" s="27">
+      <c r="S3" s="15">
         <v>2</v>
       </c>
-      <c r="U3" s="26">
-        <f t="shared" ref="U3:U15" si="0">T3/S3</f>
+      <c r="T3" s="22">
+        <f t="shared" ref="T3:T15" si="0">S3/R3</f>
         <v>2.6917900403768506E-3</v>
       </c>
-      <c r="V3" s="27">
+      <c r="U3" s="15">
         <v>1</v>
       </c>
-      <c r="W3" s="26">
-        <f t="shared" ref="W3:W15" si="1">V3/S3</f>
+      <c r="V3" s="22">
+        <f t="shared" ref="V3:V15" si="1">U3/R3</f>
         <v>1.3458950201884253E-3</v>
       </c>
-      <c r="X3" s="27">
+      <c r="W3" s="15">
         <v>737</v>
       </c>
-      <c r="Y3" s="26">
-        <f t="shared" ref="Y3:Y15" si="2">X3/S3</f>
+      <c r="X3" s="22">
+        <f t="shared" ref="X3:X15" si="2">W3/R3</f>
         <v>0.99192462987886942</v>
       </c>
-      <c r="Z3" s="27">
+      <c r="Y3" s="15">
         <v>1</v>
       </c>
-      <c r="AA3" s="26">
-        <f t="shared" ref="AA3:AA15" si="3">Z3/S3</f>
+      <c r="Z3" s="22">
+        <f t="shared" ref="Z3:Z15" si="3">Y3/R3</f>
         <v>1.3458950201884253E-3</v>
       </c>
-      <c r="AB3" s="27">
+      <c r="AA3" s="15">
         <v>1</v>
       </c>
-      <c r="AC3" s="26">
-        <f t="shared" ref="AC3:AC15" si="4">AB3/S3</f>
+      <c r="AB3" s="22">
+        <f t="shared" ref="AB3:AB15" si="4">AA3/R3</f>
         <v>1.3458950201884253E-3</v>
       </c>
-      <c r="AD3" s="27">
+      <c r="AC3" s="27">
         <v>1</v>
       </c>
-      <c r="AE3" s="26">
-        <f t="shared" ref="AE3:AE15" si="5">AD3/S3</f>
+      <c r="AD3" s="22">
+        <f t="shared" ref="AD3:AD15" si="5">AC3/R3</f>
         <v>1.3458950201884253E-3</v>
       </c>
-      <c r="AF3" s="33">
+      <c r="AE3" s="16">
         <v>-1007</v>
       </c>
-      <c r="AG3" s="33">
+      <c r="AF3" s="16">
         <v>90057</v>
       </c>
-      <c r="AH3" s="34">
+      <c r="AG3" s="17">
         <v>30898.900352781551</v>
       </c>
-      <c r="AI3" s="34">
+      <c r="AH3" s="17">
         <v>29209.02300316083</v>
       </c>
-      <c r="AJ3" s="33">
+      <c r="AI3" s="16">
         <v>737</v>
       </c>
-      <c r="AK3" s="36">
-        <f t="shared" ref="AK3:AK15" si="6">AJ3/S3</f>
+      <c r="AJ3" s="20">
+        <f t="shared" ref="AJ3:AJ15" si="6">AI3/R3</f>
         <v>0.99192462987886942</v>
       </c>
-      <c r="AL3" s="33">
+      <c r="AK3" s="16">
         <v>-1007</v>
       </c>
-      <c r="AM3" s="33">
+      <c r="AL3" s="16">
         <v>1</v>
       </c>
-      <c r="AN3" s="33">
+      <c r="AM3" s="20">
+        <f t="shared" ref="AM3:AM15" si="7">AL3/R3</f>
+        <v>1.3458950201884253E-3</v>
+      </c>
+      <c r="AN3" s="16">
         <v>5711</v>
       </c>
-      <c r="AO3" s="33">
+      <c r="AO3" s="16">
         <v>12467</v>
       </c>
-      <c r="AP3" s="33">
+      <c r="AP3" s="16">
         <v>55000</v>
       </c>
-      <c r="AQ3" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR3" s="43" t="str">
-        <f t="shared" ref="AR3:AR15" si="7">IF(AQ3="no format", "",AQ3/S3 )</f>
-        <v/>
-      </c>
-      <c r="AS3" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT3" s="43" t="str">
-        <f t="shared" ref="AT3:AT15" si="8">IF(AS3="no list","",AS3/S3)</f>
-        <v/>
-      </c>
-      <c r="AU3" s="42">
+      <c r="AQ3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR3" s="23" t="str">
+        <f t="shared" ref="AR3:AR15" si="8">IF(AQ3="no format", "",AQ3/R3 )</f>
+        <v/>
+      </c>
+      <c r="AS3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT3" s="23" t="str">
+        <f t="shared" ref="AT3:AT15" si="9">IF(AS3="no list","",AS3/R3)</f>
+        <v/>
+      </c>
+      <c r="AU3" s="19">
         <v>36</v>
       </c>
-      <c r="AV3" s="43">
-        <f t="shared" ref="AV3:AV15" si="9">IF(OR(AU3="no number",AU3="no range"),"",AU3/S3)</f>
+      <c r="AV3" s="23">
+        <f t="shared" ref="AV3:AV15" si="10">IF(OR(AU3="no number",AU3="no range"),"",AU3/R3)</f>
         <v>4.8452220726783311E-2</v>
       </c>
+      <c r="AW3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX3" s="32" t="str">
+        <f t="shared" ref="AX3:AX15" si="11">IF(OR(AW3="no fk",AW3="err",AW3="no table/field",),"",AW3/R3)</f>
+        <v/>
+      </c>
     </row>
-    <row r="4" spans="1:48" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10">
+    <row r="4" spans="1:52" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9">
         <v>743</v>
       </c>
-      <c r="T4" s="27">
-        <v>0</v>
-      </c>
-      <c r="U4" s="26">
+      <c r="S4" s="15">
+        <v>0</v>
+      </c>
+      <c r="T4" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V4" s="27">
-        <v>0</v>
-      </c>
-      <c r="W4" s="26">
+      <c r="U4" s="15">
+        <v>0</v>
+      </c>
+      <c r="V4" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X4" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="26">
+      <c r="W4" s="15">
+        <v>0</v>
+      </c>
+      <c r="X4" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="26">
+      <c r="Y4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="27">
+      <c r="AA4" s="15">
         <v>743</v>
       </c>
-      <c r="AC4" s="26">
+      <c r="AB4" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AD4" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="26">
+      <c r="AC4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG4" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH4" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI4" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ4" s="33">
+      <c r="AE4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI4" s="16">
         <v>724</v>
       </c>
-      <c r="AK4" s="36">
+      <c r="AJ4" s="20">
         <f t="shared" si="6"/>
         <v>0.97442799461641993</v>
       </c>
-      <c r="AL4" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM4" s="33">
+      <c r="AK4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL4" s="16">
         <v>2</v>
       </c>
-      <c r="AN4" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO4" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP4" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ4" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR4" s="43" t="str">
+      <c r="AM4" s="20">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AS4" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT4" s="43" t="str">
+        <v>2.6917900403768506E-3</v>
+      </c>
+      <c r="AN4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR4" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AU4" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV4" s="43" t="str">
+      <c r="AS4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT4" s="23" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="AU4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV4" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AW4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX4" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
     </row>
-    <row r="5" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S5" s="10">
+    <row r="5" spans="1:52" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" s="9">
         <v>161</v>
       </c>
-      <c r="T5" s="27">
-        <v>0</v>
-      </c>
-      <c r="U5" s="26">
+      <c r="S5" s="15">
+        <v>0</v>
+      </c>
+      <c r="T5" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V5" s="27">
-        <v>0</v>
-      </c>
-      <c r="W5" s="26">
+      <c r="U5" s="15">
+        <v>0</v>
+      </c>
+      <c r="V5" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X5" s="27">
+      <c r="W5" s="15">
         <v>161</v>
       </c>
-      <c r="Y5" s="26">
+      <c r="X5" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z5" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="26">
+      <c r="Y5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="26">
+      <c r="AA5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="26">
+      <c r="AC5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="33">
+      <c r="AE5" s="16">
         <v>111</v>
       </c>
-      <c r="AG5" s="33">
+      <c r="AF5" s="16">
         <v>2293</v>
       </c>
-      <c r="AH5" s="34">
+      <c r="AG5" s="17">
         <v>921.34161490683232</v>
       </c>
-      <c r="AI5" s="34">
+      <c r="AH5" s="17">
         <v>496.96754302456787</v>
       </c>
-      <c r="AJ5" s="33">
+      <c r="AI5" s="16">
         <v>161</v>
       </c>
-      <c r="AK5" s="36">
+      <c r="AJ5" s="20">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AL5" s="33">
+      <c r="AK5" s="16">
         <v>111</v>
       </c>
-      <c r="AM5" s="33">
+      <c r="AL5" s="16">
         <v>1</v>
       </c>
-      <c r="AN5" s="33">
+      <c r="AM5" s="20">
+        <f t="shared" si="7"/>
+        <v>6.2111801242236021E-3</v>
+      </c>
+      <c r="AN5" s="16">
         <v>583</v>
       </c>
-      <c r="AO5" s="33">
+      <c r="AO5" s="16">
         <v>977</v>
       </c>
-      <c r="AP5" s="33">
+      <c r="AP5" s="16">
         <v>1198</v>
       </c>
-      <c r="AQ5" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR5" s="43" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AS5" s="42">
+      <c r="AQ5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR5" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AS5" s="19">
         <v>3</v>
       </c>
-      <c r="AT5" s="43">
-        <f t="shared" si="8"/>
+      <c r="AT5" s="23">
+        <f t="shared" si="9"/>
         <v>1.8633540372670808E-2</v>
       </c>
-      <c r="AU5" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV5" s="43" t="str">
-        <f t="shared" si="9"/>
+      <c r="AU5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV5" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AW5" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX5" s="32" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10">
+    <row r="6" spans="1:52" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9">
         <v>161</v>
       </c>
-      <c r="T6" s="27">
-        <v>0</v>
-      </c>
-      <c r="U6" s="26">
+      <c r="S6" s="15">
+        <v>0</v>
+      </c>
+      <c r="T6" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V6" s="27">
-        <v>0</v>
-      </c>
-      <c r="W6" s="26">
+      <c r="U6" s="15">
+        <v>0</v>
+      </c>
+      <c r="V6" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X6" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="26">
+      <c r="W6" s="15">
+        <v>0</v>
+      </c>
+      <c r="X6" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="26">
+      <c r="Y6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="27">
+      <c r="AA6" s="15">
         <v>161</v>
       </c>
-      <c r="AC6" s="26">
+      <c r="AB6" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AD6" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="26">
+      <c r="AC6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG6" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH6" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI6" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ6" s="33">
+      <c r="AE6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF6" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG6" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH6" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI6" s="16">
         <v>161</v>
       </c>
-      <c r="AK6" s="36">
+      <c r="AJ6" s="20">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AL6" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM6" s="33">
+      <c r="AK6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL6" s="16">
         <v>1</v>
       </c>
-      <c r="AN6" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO6" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP6" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ6" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR6" s="43" t="str">
+      <c r="AM6" s="20">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AS6" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT6" s="43" t="str">
+        <v>6.2111801242236021E-3</v>
+      </c>
+      <c r="AN6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR6" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AU6" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV6" s="43" t="str">
+      <c r="AS6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT6" s="23" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="AU6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV6" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AW6" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX6" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AZ6" s="13"/>
     </row>
-    <row r="7" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="10">
+    <row r="7" spans="1:52" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="9">
         <v>100</v>
       </c>
-      <c r="T7" s="27">
-        <v>0</v>
-      </c>
-      <c r="U7" s="26">
+      <c r="S7" s="15">
+        <v>0</v>
+      </c>
+      <c r="T7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V7" s="27">
-        <v>0</v>
-      </c>
-      <c r="W7" s="26">
+      <c r="U7" s="15">
+        <v>0</v>
+      </c>
+      <c r="V7" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X7" s="27">
+      <c r="W7" s="15">
         <v>100</v>
       </c>
-      <c r="Y7" s="26">
+      <c r="X7" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="26">
+      <c r="Y7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="26">
+      <c r="AA7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="26">
+      <c r="AC7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="33">
+      <c r="AE7" s="16">
         <v>-5096</v>
       </c>
-      <c r="AG7" s="33">
+      <c r="AF7" s="16">
         <v>5762</v>
       </c>
-      <c r="AH7" s="34">
+      <c r="AG7" s="17">
         <v>5164.97</v>
       </c>
-      <c r="AI7" s="34">
-        <v>1194.7025702718411</v>
-      </c>
-      <c r="AJ7" s="33">
+      <c r="AH7" s="17">
+        <v>1194.7025702718399</v>
+      </c>
+      <c r="AI7" s="16">
         <v>26</v>
       </c>
-      <c r="AK7" s="36">
+      <c r="AJ7" s="20">
         <f t="shared" si="6"/>
         <v>0.26</v>
       </c>
-      <c r="AL7" s="33">
+      <c r="AK7" s="16">
         <v>5096</v>
       </c>
-      <c r="AM7" s="33">
+      <c r="AL7" s="16">
         <v>35</v>
       </c>
-      <c r="AN7" s="33">
+      <c r="AM7" s="20">
+        <f t="shared" si="7"/>
+        <v>0.35</v>
+      </c>
+      <c r="AN7" s="16">
         <v>5096</v>
       </c>
-      <c r="AO7" s="33">
+      <c r="AO7" s="16">
         <v>5096</v>
       </c>
-      <c r="AP7" s="33">
+      <c r="AP7" s="16">
         <v>5631</v>
       </c>
-      <c r="AQ7" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR7" s="43" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AS7" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT7" s="43" t="str">
+      <c r="AQ7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR7" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AU7" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV7" s="43" t="str">
+      <c r="AS7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT7" s="23" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="AU7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV7" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AW7" s="31">
+        <v>96</v>
+      </c>
+      <c r="AX7" s="32">
+        <f t="shared" si="11"/>
+        <v>0.96</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="10">
+    <row r="8" spans="1:52" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="9">
         <v>100</v>
       </c>
-      <c r="T8" s="27">
-        <v>0</v>
-      </c>
-      <c r="U8" s="26">
+      <c r="S8" s="15">
+        <v>0</v>
+      </c>
+      <c r="T8" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V8" s="27">
-        <v>0</v>
-      </c>
-      <c r="W8" s="26">
+      <c r="U8" s="15">
+        <v>0</v>
+      </c>
+      <c r="V8" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X8" s="27">
+      <c r="W8" s="15">
         <v>100</v>
       </c>
-      <c r="Y8" s="26">
+      <c r="X8" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="26">
+      <c r="Y8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="26">
+      <c r="AA8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="26">
+      <c r="AC8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="33">
+      <c r="AE8" s="16">
         <v>11</v>
       </c>
-      <c r="AG8" s="33">
+      <c r="AF8" s="16">
         <v>1164</v>
       </c>
-      <c r="AH8" s="34">
+      <c r="AG8" s="17">
         <v>299.7</v>
       </c>
-      <c r="AI8" s="34">
-        <v>355.16544729111092</v>
-      </c>
-      <c r="AJ8" s="33">
+      <c r="AH8" s="17">
+        <v>355.16544729111098</v>
+      </c>
+      <c r="AI8" s="16">
         <v>65</v>
       </c>
-      <c r="AK8" s="36">
+      <c r="AJ8" s="20">
         <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
-      <c r="AL8" s="33">
+      <c r="AK8" s="16">
         <v>621</v>
       </c>
-      <c r="AM8" s="33">
+      <c r="AL8" s="16">
         <v>5</v>
       </c>
-      <c r="AN8" s="33">
+      <c r="AM8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="AN8" s="16">
         <v>54.75</v>
       </c>
-      <c r="AO8" s="33">
+      <c r="AO8" s="16">
         <v>82.5</v>
       </c>
-      <c r="AP8" s="33">
+      <c r="AP8" s="16">
         <v>588.25</v>
       </c>
-      <c r="AQ8" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR8" s="43" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AS8" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT8" s="43" t="str">
+      <c r="AQ8" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR8" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AU8" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV8" s="43" t="str">
+      <c r="AS8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT8" s="23" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="AU8" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV8" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AW8" s="31">
+        <v>45</v>
+      </c>
+      <c r="AX8" s="32">
+        <f t="shared" si="11"/>
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="10">
+    <row r="9" spans="1:52" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9">
         <v>100</v>
       </c>
-      <c r="T9" s="27">
-        <v>0</v>
-      </c>
-      <c r="U9" s="26">
+      <c r="S9" s="15">
+        <v>0</v>
+      </c>
+      <c r="T9" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V9" s="27">
+      <c r="U9" s="15">
         <v>1</v>
       </c>
-      <c r="W9" s="26">
+      <c r="V9" s="22">
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="X9" s="27">
+      <c r="W9" s="15">
         <v>99</v>
       </c>
-      <c r="Y9" s="26">
+      <c r="X9" s="22">
         <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
-      <c r="Z9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="26">
+      <c r="Y9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="26">
+      <c r="AA9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="26">
+      <c r="AC9" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="33">
+      <c r="AE9" s="16">
         <v>100009</v>
       </c>
-      <c r="AG9" s="33">
+      <c r="AF9" s="16">
         <v>200009</v>
       </c>
-      <c r="AH9" s="34">
+      <c r="AG9" s="17">
         <v>197812.63636363641</v>
       </c>
-      <c r="AI9" s="34">
+      <c r="AH9" s="17">
         <v>13415.57053443418</v>
       </c>
-      <c r="AJ9" s="33">
+      <c r="AI9" s="16">
         <v>4</v>
       </c>
-      <c r="AK9" s="36">
+      <c r="AJ9" s="20">
         <f t="shared" si="6"/>
         <v>0.04</v>
       </c>
-      <c r="AL9" s="33">
+      <c r="AK9" s="16">
         <v>199501</v>
       </c>
-      <c r="AM9" s="33">
+      <c r="AL9" s="16">
         <v>54</v>
       </c>
-      <c r="AN9" s="33">
+      <c r="AM9" s="20">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="AN9" s="16">
         <v>199501</v>
       </c>
-      <c r="AO9" s="33">
+      <c r="AO9" s="16">
         <v>199501</v>
       </c>
-      <c r="AP9" s="33">
+      <c r="AP9" s="16">
         <v>200009</v>
       </c>
-      <c r="AQ9" s="42">
+      <c r="AQ9" s="19">
         <v>97</v>
       </c>
-      <c r="AR9" s="43">
-        <f t="shared" si="7"/>
+      <c r="AR9" s="23">
+        <f t="shared" si="8"/>
         <v>0.97</v>
       </c>
-      <c r="AS9" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT9" s="43" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AU9" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV9" s="43" t="str">
+      <c r="AS9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT9" s="23" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="AU9" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV9" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AW9" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX9" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
     </row>
-    <row r="10" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:52" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="9">
+        <v>100</v>
+      </c>
+      <c r="S10" s="15">
+        <v>0</v>
+      </c>
+      <c r="T10" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="15">
+        <v>0</v>
+      </c>
+      <c r="V10" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="15">
         <v>91</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="10">
-        <v>100</v>
-      </c>
-      <c r="T10" s="27">
-        <v>0</v>
-      </c>
-      <c r="U10" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="27">
-        <v>0</v>
-      </c>
-      <c r="W10" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="27">
-        <v>91</v>
-      </c>
-      <c r="Y10" s="26">
+      <c r="X10" s="22">
         <f t="shared" si="2"/>
         <v>0.91</v>
       </c>
-      <c r="Z10" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="26">
+      <c r="Y10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="27">
+      <c r="AA10" s="15">
         <v>9</v>
       </c>
-      <c r="AC10" s="26">
+      <c r="AB10" s="22">
         <f t="shared" si="4"/>
         <v>0.09</v>
       </c>
-      <c r="AD10" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="26">
+      <c r="AC10" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="33">
+      <c r="AE10" s="16">
         <v>-344112</v>
       </c>
-      <c r="AG10" s="33">
+      <c r="AF10" s="16">
         <v>3890851</v>
       </c>
-      <c r="AH10" s="34">
+      <c r="AG10" s="17">
         <v>206170.45054945059</v>
       </c>
-      <c r="AI10" s="34">
-        <v>651493.90645993629</v>
-      </c>
-      <c r="AJ10" s="33">
+      <c r="AH10" s="17">
+        <v>651493.90645993617</v>
+      </c>
+      <c r="AI10" s="16">
         <v>40</v>
       </c>
-      <c r="AK10" s="36">
+      <c r="AJ10" s="20">
         <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
-      <c r="AL10" s="33">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="33">
+      <c r="AK10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="16">
         <v>52</v>
       </c>
-      <c r="AN10" s="33">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="33">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="33">
+      <c r="AM10" s="20">
+        <f t="shared" si="7"/>
+        <v>0.52</v>
+      </c>
+      <c r="AN10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="16">
         <v>23371.5</v>
       </c>
-      <c r="AQ10" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR10" s="43" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AS10" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT10" s="43" t="str">
+      <c r="AQ10" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR10" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AU10" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV10" s="43" t="str">
+      <c r="AS10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT10" s="23" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="AU10" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV10" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AW10" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX10" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
     </row>
-    <row r="11" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="10">
+    <row r="11" spans="1:52" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="9">
         <v>100</v>
       </c>
-      <c r="T11" s="27">
-        <v>0</v>
-      </c>
-      <c r="U11" s="26">
+      <c r="S11" s="15">
+        <v>0</v>
+      </c>
+      <c r="T11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V11" s="27">
-        <v>0</v>
-      </c>
-      <c r="W11" s="26">
+      <c r="U11" s="15">
+        <v>0</v>
+      </c>
+      <c r="V11" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X11" s="27">
+      <c r="W11" s="15">
         <v>81</v>
       </c>
-      <c r="Y11" s="26">
+      <c r="X11" s="22">
         <f t="shared" si="2"/>
         <v>0.81</v>
       </c>
-      <c r="Z11" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="26">
+      <c r="Y11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="27">
+      <c r="AA11" s="15">
         <v>19</v>
       </c>
-      <c r="AC11" s="26">
+      <c r="AB11" s="22">
         <f t="shared" si="4"/>
         <v>0.19</v>
       </c>
-      <c r="AD11" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="26">
+      <c r="AC11" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="33">
+      <c r="AE11" s="16">
         <v>-375005</v>
       </c>
-      <c r="AG11" s="33">
+      <c r="AF11" s="16">
         <v>3135227</v>
       </c>
-      <c r="AH11" s="34">
+      <c r="AG11" s="17">
         <v>125611.0617283951</v>
       </c>
-      <c r="AI11" s="34">
+      <c r="AH11" s="17">
         <v>431222.44221217622</v>
       </c>
-      <c r="AJ11" s="33">
+      <c r="AI11" s="16">
         <v>71</v>
       </c>
-      <c r="AK11" s="36">
+      <c r="AJ11" s="20">
         <f t="shared" si="6"/>
         <v>0.71</v>
       </c>
-      <c r="AL11" s="33">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="33">
+      <c r="AK11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="16">
         <v>11</v>
       </c>
-      <c r="AN11" s="33">
+      <c r="AM11" s="20">
+        <f t="shared" si="7"/>
+        <v>0.11</v>
+      </c>
+      <c r="AN11" s="16">
         <v>43</v>
       </c>
-      <c r="AO11" s="33">
+      <c r="AO11" s="16">
         <v>1468</v>
       </c>
-      <c r="AP11" s="33">
+      <c r="AP11" s="16">
         <v>45776</v>
       </c>
-      <c r="AQ11" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR11" s="43" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AS11" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT11" s="43" t="str">
+      <c r="AQ11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR11" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AU11" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV11" s="43" t="str">
+      <c r="AS11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT11" s="23" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="AU11" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV11" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AW11" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX11" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
     </row>
-    <row r="12" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="10">
+    <row r="12" spans="1:52" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="T12" s="27">
-        <v>0</v>
-      </c>
-      <c r="U12" s="26">
+      <c r="D12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="9">
+        <v>100</v>
+      </c>
+      <c r="S12" s="15">
+        <v>0</v>
+      </c>
+      <c r="T12" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V12" s="27">
-        <v>0</v>
-      </c>
-      <c r="W12" s="26">
+      <c r="U12" s="15">
+        <v>0</v>
+      </c>
+      <c r="V12" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X12" s="27">
+      <c r="W12" s="15">
         <v>91</v>
       </c>
-      <c r="Y12" s="26">
+      <c r="X12" s="22">
         <f t="shared" si="2"/>
         <v>0.91</v>
       </c>
-      <c r="Z12" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="26">
+      <c r="Y12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="27">
+      <c r="AA12" s="15">
         <v>9</v>
       </c>
-      <c r="AC12" s="26">
+      <c r="AB12" s="22">
         <f t="shared" si="4"/>
         <v>0.09</v>
       </c>
-      <c r="AD12" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="26">
+      <c r="AC12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="33">
+      <c r="AE12" s="16">
         <v>-378854</v>
       </c>
-      <c r="AG12" s="35">
+      <c r="AF12" s="18">
         <v>4454317</v>
       </c>
-      <c r="AH12" s="34">
+      <c r="AG12" s="17">
         <v>201737.68131868131</v>
       </c>
-      <c r="AI12" s="34">
-        <v>665277.03813729412</v>
-      </c>
-      <c r="AJ12" s="33">
+      <c r="AH12" s="17">
+        <v>665277.038137294</v>
+      </c>
+      <c r="AI12" s="16">
         <v>41</v>
       </c>
-      <c r="AK12" s="36">
+      <c r="AJ12" s="20">
         <f t="shared" si="6"/>
         <v>0.41</v>
       </c>
-      <c r="AL12" s="33">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="33">
+      <c r="AK12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="16">
         <v>51</v>
       </c>
-      <c r="AN12" s="33">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="33">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="33">
+      <c r="AM12" s="20">
+        <f t="shared" si="7"/>
+        <v>0.51</v>
+      </c>
+      <c r="AN12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="16">
         <v>23371.5</v>
       </c>
-      <c r="AQ12" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR12" s="43" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AS12" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT12" s="43" t="str">
+      <c r="AQ12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR12" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AU12" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV12" s="43" t="str">
+      <c r="AS12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT12" s="23" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="AU12" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV12" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AW12" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX12" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
     </row>
-    <row r="13" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="10">
+    <row r="13" spans="1:52" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="9">
         <v>100</v>
       </c>
-      <c r="T13" s="27">
-        <v>0</v>
-      </c>
-      <c r="U13" s="26">
+      <c r="S13" s="15">
+        <v>0</v>
+      </c>
+      <c r="T13" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V13" s="27">
-        <v>0</v>
-      </c>
-      <c r="W13" s="26">
+      <c r="U13" s="15">
+        <v>0</v>
+      </c>
+      <c r="V13" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X13" s="27">
+      <c r="W13" s="15">
         <v>93</v>
       </c>
-      <c r="Y13" s="26">
+      <c r="X13" s="22">
         <f t="shared" si="2"/>
         <v>0.93</v>
       </c>
-      <c r="Z13" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="26">
+      <c r="Y13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="27">
+      <c r="AA13" s="15">
         <v>7</v>
       </c>
-      <c r="AC13" s="26">
+      <c r="AB13" s="22">
         <f t="shared" si="4"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AD13" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="26">
+      <c r="AC13" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="33">
+      <c r="AE13" s="16">
         <v>-4864</v>
       </c>
-      <c r="AG13" s="33">
+      <c r="AF13" s="16">
         <v>2434212</v>
       </c>
-      <c r="AH13" s="34">
+      <c r="AG13" s="17">
         <v>99492.580645161288</v>
       </c>
-      <c r="AI13" s="34">
+      <c r="AH13" s="17">
         <v>334093.69048225152</v>
       </c>
-      <c r="AJ13" s="33">
+      <c r="AI13" s="16">
         <v>34</v>
       </c>
-      <c r="AK13" s="36">
+      <c r="AJ13" s="20">
         <f t="shared" si="6"/>
         <v>0.34</v>
       </c>
-      <c r="AL13" s="33">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="33">
+      <c r="AK13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="16">
         <v>60</v>
       </c>
-      <c r="AN13" s="33">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="33">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="33">
+      <c r="AM13" s="20">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="AN13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="16">
         <v>717</v>
       </c>
-      <c r="AQ13" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR13" s="43" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AS13" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT13" s="43" t="str">
+      <c r="AQ13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR13" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AU13" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV13" s="43" t="str">
+      <c r="AS13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT13" s="23" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="AU13" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV13" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AW13" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX13" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
     </row>
-    <row r="14" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="9" t="s">
+    <row r="14" spans="1:52" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="9">
         <v>100</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="10">
-        <v>100</v>
-      </c>
-      <c r="T14" s="27">
-        <v>0</v>
-      </c>
-      <c r="U14" s="26">
+      <c r="S14" s="15">
+        <v>0</v>
+      </c>
+      <c r="T14" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V14" s="27">
-        <v>0</v>
-      </c>
-      <c r="W14" s="26">
+      <c r="U14" s="15">
+        <v>0</v>
+      </c>
+      <c r="V14" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X14" s="27">
+      <c r="W14" s="15">
         <v>81</v>
       </c>
-      <c r="Y14" s="26">
+      <c r="X14" s="22">
         <f t="shared" si="2"/>
         <v>0.81</v>
       </c>
-      <c r="Z14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="26">
+      <c r="Y14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="27">
+      <c r="AA14" s="15">
         <v>19</v>
       </c>
-      <c r="AC14" s="26">
+      <c r="AB14" s="22">
         <f t="shared" si="4"/>
         <v>0.19</v>
       </c>
-      <c r="AD14" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="26">
+      <c r="AC14" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="33">
+      <c r="AE14" s="16">
         <v>-5422</v>
       </c>
-      <c r="AG14" s="33">
+      <c r="AF14" s="16">
         <v>2661607</v>
       </c>
-      <c r="AH14" s="34">
+      <c r="AG14" s="17">
         <v>108689.1358024691</v>
       </c>
-      <c r="AI14" s="34">
+      <c r="AH14" s="17">
         <v>355778.00908479968</v>
       </c>
-      <c r="AJ14" s="33">
+      <c r="AI14" s="16">
         <v>62</v>
       </c>
-      <c r="AK14" s="36">
+      <c r="AJ14" s="20">
         <f t="shared" si="6"/>
         <v>0.62</v>
       </c>
-      <c r="AL14" s="33">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="33">
+      <c r="AK14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="16">
         <v>18</v>
       </c>
-      <c r="AN14" s="33">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="33">
+      <c r="AM14" s="20">
+        <f t="shared" si="7"/>
+        <v>0.18</v>
+      </c>
+      <c r="AN14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="16">
         <v>413</v>
       </c>
-      <c r="AP14" s="33">
+      <c r="AP14" s="16">
         <v>9580</v>
       </c>
-      <c r="AQ14" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR14" s="43" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AS14" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT14" s="43" t="str">
+      <c r="AQ14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR14" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AU14" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV14" s="43" t="str">
+      <c r="AS14" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT14" s="23" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="AU14" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV14" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AW14" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX14" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
     </row>
-    <row r="15" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="10">
+    <row r="15" spans="1:52" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="9">
         <v>100</v>
       </c>
-      <c r="T15" s="27">
-        <v>0</v>
-      </c>
-      <c r="U15" s="26">
+      <c r="S15" s="15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V15" s="27">
-        <v>0</v>
-      </c>
-      <c r="W15" s="26">
+      <c r="U15" s="15">
+        <v>0</v>
+      </c>
+      <c r="V15" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X15" s="27">
+      <c r="W15" s="15">
         <v>83</v>
       </c>
-      <c r="Y15" s="26">
+      <c r="X15" s="22">
         <f t="shared" si="2"/>
         <v>0.83</v>
       </c>
-      <c r="Z15" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="26">
+      <c r="Y15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="27">
+      <c r="AA15" s="15">
         <v>17</v>
       </c>
-      <c r="AC15" s="26">
+      <c r="AB15" s="22">
         <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
-      <c r="AD15" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="26">
+      <c r="AC15" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="33">
+      <c r="AE15" s="16">
         <v>-823991</v>
       </c>
-      <c r="AG15" s="33">
+      <c r="AF15" s="16">
         <v>909600</v>
       </c>
-      <c r="AH15" s="34">
+      <c r="AG15" s="17">
         <v>32197</v>
       </c>
-      <c r="AI15" s="34">
+      <c r="AH15" s="17">
         <v>171185.5728616626</v>
       </c>
-      <c r="AJ15" s="33">
+      <c r="AI15" s="16">
         <v>68</v>
       </c>
-      <c r="AK15" s="36">
+      <c r="AJ15" s="20">
         <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
-      <c r="AL15" s="33">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="33">
+      <c r="AK15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="16">
         <v>14</v>
       </c>
-      <c r="AN15" s="33">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="33">
+      <c r="AM15" s="20">
+        <f t="shared" si="7"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AN15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="16">
         <v>144</v>
       </c>
-      <c r="AP15" s="33">
+      <c r="AP15" s="16">
         <v>4102.5</v>
       </c>
-      <c r="AQ15" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR15" s="43" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AS15" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT15" s="43" t="str">
+      <c r="AQ15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR15" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AU15" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV15" s="43" t="str">
+      <c r="AS15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT15" s="23" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="AU15" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV15" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AW15" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX15" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="AC16" s="13"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="18">
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AW2:AX2"/>
     <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="F1:Q1"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="R1:AD1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AE1:AP1"/>
     <mergeCell ref="AQ1:AV1"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AF1:AP1"/>
-    <mergeCell ref="S1:AE1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="G1:R1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
-  <conditionalFormatting sqref="U3:U15">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="greaterThan">
+  <conditionalFormatting sqref="T3:T15">
+    <cfRule type="cellIs" dxfId="18" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AI15">
-    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
+  <conditionalFormatting sqref="V3:V15">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:X15">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:Z15">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3:AB15">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD3:AD15">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG3:AH15">
+    <cfRule type="cellIs" dxfId="12" priority="37" operator="equal">
       <formula>"no number"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK3:AK15">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+  <conditionalFormatting sqref="AJ3:AJ15">
+    <cfRule type="cellIs" dxfId="11" priority="27" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM3:AM15">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN3:AP15">
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="36" operator="equal">
       <formula>"no value"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ3:AR15">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
       <formula>"no format"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ3:AV15">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
       <formula>"err"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS3:AS15">
-    <cfRule type="cellIs" dxfId="10" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="42" operator="equal">
       <formula>"no list"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT3:AT15">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"no format"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU3:AU15">
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="26" operator="equal">
       <formula>"no number"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="40" operator="equal">
       <formula>"no range"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV3:AV15">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"no format"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W15">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="AW3:AW15">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"no table/field"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y15">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA15">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3:AC15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"no fk"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H15 K3:O15" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G15 J3:N15" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
